--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgirish\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgirish\PycharmProjects\MainAssesment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2743ACAB-89E7-4410-8E7F-30B3C61D81F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E8106-5CB6-4451-A7CA-B1AB3FC518B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9D442CC-0937-4580-B419-F13A09BDDC03}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>Giri@gmail.com</t>
+    <t>pavan@123</t>
   </si>
   <si>
-    <t>Giri@9040</t>
+    <t>pavan@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,10 +439,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgirish\PycharmProjects\MainAssesment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70E8106-5CB6-4451-A7CA-B1AB3FC518B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4ACC7-6EE0-461F-8ABE-5731F30B4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9D442CC-0937-4580-B419-F13A09BDDC03}"/>
   </bookViews>

--- a/TestData/Data.xlsx
+++ b/TestData/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgirish\PycharmProjects\MainAssesment\TestData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CC4ACC7-6EE0-461F-8ABE-5731F30B4343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C246B625-F2B4-4EE8-8489-CB606D27FA5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D9D442CC-0937-4580-B419-F13A09BDDC03}"/>
   </bookViews>
@@ -44,10 +44,10 @@
     <t>password</t>
   </si>
   <si>
-    <t>pavan@123</t>
+    <t>standard_user</t>
   </si>
   <si>
-    <t>pavan@gmail.com</t>
+    <t>secret_sauce</t>
   </si>
 </sst>
 </file>
@@ -420,7 +420,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -439,16 +439,16 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{9D3F734B-1F8B-4B4F-91A5-FF802592B203}"/>
-    <hyperlink ref="B2" r:id="rId2" xr:uid="{9675DA1E-FB46-4928-BD8B-B49D9008D5EB}"/>
+    <hyperlink ref="A2" r:id="rId1" display="pavan@gmail.com" xr:uid="{9D3F734B-1F8B-4B4F-91A5-FF802592B203}"/>
+    <hyperlink ref="B2" r:id="rId2" display="pavan@123" xr:uid="{9675DA1E-FB46-4928-BD8B-B49D9008D5EB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
